--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
         <v>2000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,16 +924,16 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
         <v>2500</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,13 +1224,13 @@
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44312</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,13 +1008,13 @@
         <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,16 +1140,16 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
         <v>2000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,16 +1383,88 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>180</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,38 +1140,38 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,25 +1428,25 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,16 +1455,88 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>180</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,16 +1527,88 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>180</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,16 +1599,88 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>180</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,38 +1356,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,16 +1671,88 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>180</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44477</v>
+        <v>44497</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44495</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
         <v>800</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,16 +1743,88 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>180</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,26 +648,26 @@
         <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,16 +1500,16 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
         <v>2500</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44491</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,33 +1649,33 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,34 +1797,106 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>150</v>
+      </c>
+      <c r="K21" t="n">
+        <v>800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>800</v>
+      </c>
+      <c r="M21" t="n">
+        <v>800</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44477</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,58 +1845,130 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>280</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E21" t="n">
-        <v>13</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>150</v>
       </c>
-      <c r="K21" t="n">
-        <v>800</v>
-      </c>
-      <c r="L21" t="n">
-        <v>800</v>
-      </c>
-      <c r="M21" t="n">
-        <v>800</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="K22" t="n">
+        <v>800</v>
+      </c>
+      <c r="L22" t="n">
+        <v>800</v>
+      </c>
+      <c r="M22" t="n">
+        <v>800</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>800</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="P22" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,16 +492,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44495</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,29 +789,29 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,38 +852,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44504</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,26 +1440,26 @@
         <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
         <v>2500</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44477</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44510</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
         <v>2000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,29 +861,29 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44217</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>3000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44477</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44504</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
         <v>2500</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,33 +1577,33 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,33 +1649,33 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44504</v>
+        <v>44497</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44504</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44495</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,33 +1577,33 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44217</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>560</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44483</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K20" t="n">
         <v>3000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44495</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,29 +789,29 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44497</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,33 +1001,33 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44510</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="K21" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
         <v>800</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,33 +785,33 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44504</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,33 +1001,33 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44510</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,16 +1356,16 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
         <v>2000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,38 +1500,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,38 +1644,38 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M20" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M21" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,33 +713,33 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,26 +864,26 @@
         <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44504</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44510</v>
+        <v>44497</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44477</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,38 +1644,38 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M21" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,26 +576,26 @@
         <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44217</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,29 +861,29 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,38 +1140,38 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44483</v>
+        <v>44504</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K20" t="n">
         <v>2000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,38 +1860,38 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1932,38 +1932,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44497</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44217</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,29 +861,29 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44510</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44504</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44504</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M18" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
         <v>3000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,29 +1869,29 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44510</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,38 +564,38 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,13 +648,13 @@
         <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44504</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44194</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44510</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44217</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
         <v>3000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,29 +1869,29 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44477</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44510</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,38 +564,38 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44217</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
         <v>2500</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,29 +933,29 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
         <v>2500</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
         <v>2000</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44510</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44504</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,38 +1500,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
         <v>800</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,33 +1649,33 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44477</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44483</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1944,26 +1944,26 @@
         <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
         <v>800</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44504</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44497</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
         <v>800</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44497</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
         <v>800</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44483</v>
+        <v>44312</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
         <v>800</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44504</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,16 +1212,16 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
         <v>2000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,38 +1500,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44194</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,33 +1649,33 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44312</v>
+        <v>44483</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44217</v>
+        <v>44497</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44504</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,33 +785,33 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,11 +929,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>2500</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
         <v>2500</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K15" t="n">
         <v>2000</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44491</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44217</v>
+        <v>44305</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
         <v>2500</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,38 +1644,38 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44495</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,38 +1716,38 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44504</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,16 +708,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
         <v>2500</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,38 +852,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,16 +1140,16 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
         <v>2000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44504</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44497</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,16 +708,16 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
         <v>2500</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,38 +852,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,33 +641,33 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44504</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
         <v>800</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44495</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44217</v>
+        <v>44312</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K15" t="n">
         <v>2500</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,38 +1716,38 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44477</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,33 +641,33 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44504</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44312</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,38 +1788,38 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44477</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
         <v>2500</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
         <v>2000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44510</v>
+        <v>44497</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44504</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,29 +1365,29 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,26 +1584,26 @@
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44477</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44477</v>
+        <v>44491</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
         <v>2500</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
         <v>2000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44504</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,29 +1365,29 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,26 +1584,26 @@
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44477</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44504</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44495</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,38 +852,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M10" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K11" t="n">
         <v>3000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,29 +1365,29 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,26 +1584,26 @@
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
         <v>2500</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,38 +1788,38 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,38 +1860,38 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44510</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44504</v>
+        <v>44312</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44491</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44217</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,33 +929,33 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44217</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,29 +1365,29 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44312</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,33 +713,33 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,33 +785,33 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
         <v>800</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="K10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,38 +1716,38 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44510</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1872,26 +1872,26 @@
         <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44483</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
         <v>2500</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>2500</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M17" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
         <v>800</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44483</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,33 +785,33 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44495</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,38 +1356,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44483</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
         <v>800</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44488</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K18" t="n">
         <v>2000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44312</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44495</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
         <v>800</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44497</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
         <v>800</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44488</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,25 +1068,25 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,38 +1356,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44497</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L16" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M16" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,33 +1577,33 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44312</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44504</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
         <v>800</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44495</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,33 +1649,33 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44504</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44510</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,16 +780,16 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>2500</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,13 +864,13 @@
         <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
         <v>2000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44510</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44491</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44477</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,29 +1941,29 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
         <v>2000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>2500</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,38 +1356,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44510</v>
+        <v>44497</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,33 +1577,33 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44477</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44510</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1944,26 +1944,26 @@
         <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
         <v>2500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
         <v>2000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K10" t="n">
         <v>2500</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,38 +1356,38 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44497</v>
+        <v>44510</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,33 +1577,33 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44497</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,29 +1653,29 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44510</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1944,26 +1944,26 @@
         <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44504</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,33 +929,33 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,33 +1001,33 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44504</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,38 +1428,38 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K20" t="n">
         <v>3000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,33 +641,33 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>560</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44497</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,29 +1293,29 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,25 +1428,25 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,38 +1644,38 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44167</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
         <v>2000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,38 +780,38 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,29 +861,29 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44495</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,38 +1212,38 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44495</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44504</v>
+        <v>44167</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,33 +1937,33 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44497</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44217</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,29 +789,29 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44223</v>
+        <v>44504</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
         <v>800</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44497</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
         <v>800</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44217</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44491</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,29 +789,29 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44223</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,38 +1068,38 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,38 +1284,38 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44510</v>
+        <v>44495</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
         <v>800</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,33 +929,33 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44491</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44312</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K11" t="n">
         <v>2500</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44504</v>
+        <v>44167</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,38 +1500,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44223</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44510</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,33 +929,33 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
         <v>2500</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44504</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,38 +1500,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,38 +1572,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K18" t="n">
         <v>800</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44510</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44497</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44305</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
         <v>800</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,38 +636,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44491</v>
+        <v>44510</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44312</v>
+        <v>44167</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44497</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,33 +1505,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
         <v>2500</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
         <v>2000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M21" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44495</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44477</v>
+        <v>44312</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
         <v>800</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,16 +780,16 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
         <v>2500</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44510</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44167</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>560</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44491</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44167</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K17" t="n">
         <v>2000</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
         <v>2500</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
         <v>2000</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,38 +1860,38 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44223</v>
+        <v>44495</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1932,38 +1932,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M2" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44312</v>
+        <v>44223</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,25 +852,25 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44217</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44312</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
         <v>800</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44167</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="K16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44194</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44504</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,33 +1721,33 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44217</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44497</v>
+        <v>44477</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
         <v>800</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
         <v>800</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44223</v>
+        <v>44491</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,38 +492,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44488</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,33 +857,33 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,33 +929,33 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44483</v>
+        <v>44495</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,33 +1073,33 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44497</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44510</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44312</v>
+        <v>44477</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44504</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44497</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44194</v>
+        <v>44312</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44194</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M17" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44217</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
         <v>2500</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44491</v>
+        <v>44167</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,33 +1937,33 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44491</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,25 +564,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44223</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,38 +852,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44223</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44495</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44497</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
         <v>800</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
         <v>800</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44477</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K14" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44483</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44312</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
         <v>2500</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K19" t="n">
         <v>2000</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1797,29 +1797,29 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="K21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44167</v>
+        <v>44477</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,33 +1937,33 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44504</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
         <v>800</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44491</v>
+        <v>44217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M14" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44488</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44167</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L17" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M17" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L18" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M18" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44312</v>
+        <v>44491</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44477</v>
+        <v>44312</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,33 +497,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
         <v>800</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44223</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,38 +708,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,38 +996,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44504</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44491</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44217</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L14" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44488</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,29 +1581,29 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L17" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M17" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44495</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44312</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,20 +1869,20 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44477</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44497</v>
+        <v>44167</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44223</v>
+        <v>44167</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,16 +852,16 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
         <v>2000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44223</v>
+        <v>44497</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,38 +924,38 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44223</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,25 +996,25 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
         <v>800</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,33 +1145,33 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44483</v>
+        <v>44217</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44488</v>
+        <v>44217</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,25 +1644,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44491</v>
+        <v>44223</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,38 +1860,38 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44167</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="L2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44167</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,33 +569,33 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44495</v>
+        <v>44167</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,33 +641,33 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44167</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,29 +717,29 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="M5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44167</v>
+        <v>44217</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K7" t="n">
         <v>2000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
         <v>800</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44497</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44223</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,38 +1140,38 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44504</v>
+        <v>44223</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,29 +1221,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44223</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Americana O Klondike</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K14" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44217</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>2500</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44217</v>
+        <v>44504</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,29 +1509,29 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
         <v>800</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44223</v>
+        <v>44312</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,16 +1644,16 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K18" t="n">
         <v>2500</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44223</v>
+        <v>44477</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,29 +1725,29 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44223</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Americana O Klondike</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44312</v>
+        <v>44488</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
